--- a/data/trans_orig/P16A_2_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>187090</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>165559</v>
+        <v>166305</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>209473</v>
+        <v>209785</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3233891073606688</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2861722921302512</v>
+        <v>0.2874625376951912</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3620794149485178</v>
+        <v>0.3626176704932214</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>879</v>
@@ -762,19 +762,19 @@
         <v>484423</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>459771</v>
+        <v>462910</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>506817</v>
+        <v>508969</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5892948039127104</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5593059843924094</v>
+        <v>0.5631252383296478</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.616537449499084</v>
+        <v>0.6191545344832184</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1132</v>
@@ -783,19 +783,19 @@
         <v>671513</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>640130</v>
+        <v>636678</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>704297</v>
+        <v>703450</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4794576906584147</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4570506462113628</v>
+        <v>0.454585770802482</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5028657135622309</v>
+        <v>0.5022608626401918</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>391439</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>369056</v>
+        <v>368744</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>412970</v>
+        <v>412224</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6766108926393313</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6379205850514823</v>
+        <v>0.6373823295067789</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7138277078697487</v>
+        <v>0.7125374623048087</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>548</v>
@@ -833,19 +833,19 @@
         <v>337615</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>315221</v>
+        <v>313069</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>362267</v>
+        <v>359128</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4107051960872897</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3834625505009161</v>
+        <v>0.3808454655167818</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4406940156075906</v>
+        <v>0.4368747616703523</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>986</v>
@@ -854,19 +854,19 @@
         <v>729054</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>696270</v>
+        <v>697117</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>760437</v>
+        <v>763889</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5205423093415854</v>
+        <v>0.5205423093415853</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4971342864377692</v>
+        <v>0.4977391373598085</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5429493537886373</v>
+        <v>0.545414229197518</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>502140</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>459808</v>
+        <v>461180</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>547115</v>
+        <v>547212</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2251179505491706</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2061396724831588</v>
+        <v>0.2067548828148154</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2452809398786577</v>
+        <v>0.2453241249890376</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1109</v>
@@ -979,19 +979,19 @@
         <v>741359</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>699203</v>
+        <v>700663</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>784186</v>
+        <v>783601</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3414211547785885</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3220067539112593</v>
+        <v>0.3226790749795934</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3611442970043136</v>
+        <v>0.3608747708013654</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1604</v>
@@ -1000,19 +1000,19 @@
         <v>1243500</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1184313</v>
+        <v>1181159</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1302364</v>
+        <v>1297562</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2824878379281698</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2690422078484823</v>
+        <v>0.2683257921811574</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2958600799599034</v>
+        <v>0.2947691429763035</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1728426</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1683451</v>
+        <v>1683354</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1770758</v>
+        <v>1769386</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7748820494508295</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7547190601213427</v>
+        <v>0.7546758750109623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7938603275168412</v>
+        <v>0.7932451171851843</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1812</v>
@@ -1050,19 +1050,19 @@
         <v>1430033</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1387206</v>
+        <v>1387791</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1472189</v>
+        <v>1470729</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6585788452214116</v>
+        <v>0.6585788452214114</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6388557029956865</v>
+        <v>0.6391252291986342</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6779932460887406</v>
+        <v>0.6773209250204066</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3309</v>
@@ -1071,19 +1071,19 @@
         <v>3158459</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3099595</v>
+        <v>3104397</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3217646</v>
+        <v>3220800</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7175121620718301</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7041399200400968</v>
+        <v>0.7052308570236966</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7309577921515181</v>
+        <v>0.7316742078188425</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>137511</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>117509</v>
+        <v>113939</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>169289</v>
+        <v>164983</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1932460452442898</v>
+        <v>0.1932460452442897</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.165136921625798</v>
+        <v>0.1601194567458074</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2379041417882186</v>
+        <v>0.2318527592174705</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>299</v>
@@ -1196,19 +1196,19 @@
         <v>210566</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>189737</v>
+        <v>188881</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>233972</v>
+        <v>233475</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2865317397268978</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2581890181042009</v>
+        <v>0.2570233106126397</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3183825484903746</v>
+        <v>0.3177058991097111</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>423</v>
@@ -1217,19 +1217,19 @@
         <v>348077</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>317003</v>
+        <v>318802</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>383886</v>
+        <v>378641</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2406399124414205</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2191570220210566</v>
+        <v>0.2204011886355331</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2653961830570484</v>
+        <v>0.2617703027754087</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>574076</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>542298</v>
+        <v>546604</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>594078</v>
+        <v>597648</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8067539547557103</v>
+        <v>0.8067539547557102</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7620958582117815</v>
+        <v>0.7681472407825294</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.834863078374202</v>
+        <v>0.8398805432541928</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>705</v>
@@ -1267,19 +1267,19 @@
         <v>524311</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>500905</v>
+        <v>501402</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>545140</v>
+        <v>545996</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7134682602731022</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6816174515096254</v>
+        <v>0.682294100890289</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7418109818957994</v>
+        <v>0.7429766893873605</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1262</v>
@@ -1288,19 +1288,19 @@
         <v>1098387</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1062578</v>
+        <v>1067823</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1129461</v>
+        <v>1127662</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7593600875585796</v>
+        <v>0.7593600875585795</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7346038169429517</v>
+        <v>0.738229697224591</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7808429779789434</v>
+        <v>0.7795988113644668</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>826742</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>776026</v>
+        <v>773458</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>884889</v>
+        <v>884933</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2348243405156804</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2204191018385335</v>
+        <v>0.2196899004537386</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2513400430013284</v>
+        <v>0.2513527170259707</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2287</v>
@@ -1413,19 +1413,19 @@
         <v>1436347</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1384167</v>
+        <v>1389123</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1489810</v>
+        <v>1490488</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3852545969333233</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3712589851802627</v>
+        <v>0.3725881313345196</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3995943184971503</v>
+        <v>0.3997760559846055</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3159</v>
@@ -1434,19 +1434,19 @@
         <v>2263090</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2181619</v>
+        <v>2189098</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2336421</v>
+        <v>2342170</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3121937690805193</v>
+        <v>0.3121937690805194</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3009549468432135</v>
+        <v>0.3019866867042607</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3223099116676875</v>
+        <v>0.3231029181978435</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>2693941</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2635794</v>
+        <v>2635750</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2744657</v>
+        <v>2747225</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7651756594843195</v>
+        <v>0.7651756594843196</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7486599569986717</v>
+        <v>0.7486472829740292</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7795808981614665</v>
+        <v>0.7803100995462614</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3065</v>
@@ -1484,19 +1484,19 @@
         <v>2291960</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2238497</v>
+        <v>2237819</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2344140</v>
+        <v>2339184</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6147454030666767</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6004056815028496</v>
+        <v>0.6002239440153945</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6287410148197374</v>
+        <v>0.6274118686654804</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5557</v>
@@ -1505,19 +1505,19 @@
         <v>4985900</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4912569</v>
+        <v>4906820</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5067371</v>
+        <v>5059892</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6878062309194806</v>
+        <v>0.6878062309194808</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6776900883323127</v>
+        <v>0.6768970818021564</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6990450531567866</v>
+        <v>0.6980133132957395</v>
       </c>
     </row>
     <row r="15">
